--- a/com.sevenmart/src/main/resources/ExcelFiles/PushNotificationData.xlsx
+++ b/com.sevenmart/src/main/resources/ExcelFiles/PushNotificationData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopik\eclipse-workspace\com.sevenmart\src\main\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\repository\com.sevenmart\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD32F310-54C4-4BA2-AD61-C5773499B962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5DFE4D-A36A-4461-8D8A-3F57E518B3B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TitleAndDescription" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>hello</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>What is the use of TestNG?</t>
+  </si>
+  <si>
+    <t>TestNG provides advanced features such as annotations, data-driven testing, test sequencing, and parallel testing to help you organize and execute your Selenium tests more efficiently and effectively.</t>
+  </si>
+  <si>
+    <t>Why XML is used in TestNG?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It allows testers to create and handle multiple test classes, define test suites and tests. </t>
   </si>
 </sst>
 </file>
@@ -66,8 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,20 +363,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B10" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/com.sevenmart/src/main/resources/ExcelFiles/PushNotificationData.xlsx
+++ b/com.sevenmart/src/main/resources/ExcelFiles/PushNotificationData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\repository\com.sevenmart\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5DFE4D-A36A-4461-8D8A-3F57E518B3B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9493F83-8B01-4CFC-AA90-429C30877460}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B9:B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
